--- a/consumption_input_file.xlsx
+++ b/consumption_input_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/motoakisumi/Documents/dev/simulator/electric_vehicle_non_shift_based/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD23F33-5755-A340-B5A8-33D0B4404989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B2D946-0C93-8048-A567-75EB082BB85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" activeTab="1" xr2:uid="{F9DD9258-1D7D-F04B-944F-218A63A2058C}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" firstSheet="5" activeTab="15" xr2:uid="{F9DD9258-1D7D-F04B-944F-218A63A2058C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,10 @@
     <sheet name="desktop" sheetId="16" r:id="rId12"/>
     <sheet name="light" sheetId="17" r:id="rId13"/>
     <sheet name="ev_charger" sheetId="18" r:id="rId14"/>
+    <sheet name="heatpump_standby" sheetId="19" r:id="rId15"/>
+    <sheet name="heatpump_heat" sheetId="20" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
   <si>
     <t>Kettle</t>
   </si>
@@ -239,6 +241,21 @@
   <si>
     <t>Í</t>
   </si>
+  <si>
+    <t>https://heatpumps.co.uk/2013/08/13/stand-by-power-and-air-source-heat-pumps/</t>
+  </si>
+  <si>
+    <t>stand_by</t>
+  </si>
+  <si>
+    <t>heating</t>
+  </si>
+  <si>
+    <t>heatpump_heat</t>
+  </si>
+  <si>
+    <t>heatpump_standby</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -372,18 +389,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2030,6 +2045,702 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E12C-7741-BBC0-7DBD4B840C61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="189918256"/>
+        <c:axId val="31146160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="189918256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31146160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31146160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189918256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heatpump_standby!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heatpump_standby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>heatpump_standby!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>heatpump_standby!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A600-124B-928E-0E6E9EE5E66B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="189918256"/>
+        <c:axId val="31146160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="189918256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31146160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31146160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189918256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heatpump_heat!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heatpump_heat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>heatpump_heat!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>heatpump_heat!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54B6-7245-9327-092614051897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5570,6 +6281,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7955,6 +8746,1038 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13043,6 +14866,336 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1EDF82D-AE3E-F14F-9C0E-D8E84629DBDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F735945-EC7C-47F9-1E93-B59CA71E4C6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10007600" y="5384801"/>
+          <a:ext cx="7810500" cy="4178300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>728133</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>113241</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100EA1C3-0879-95CC-DF2E-8B6640FCCC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9855200" y="897467"/>
+          <a:ext cx="7682441" cy="3911600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353B5578-F06B-6F40-A3BB-2F9C38BC122D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6288A50F-9E02-CF4F-9146-F423967590AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9956800" y="5384801"/>
+          <a:ext cx="7772400" cy="4178300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>728133</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>113241</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CA937E-20D3-F644-94BE-3955F5255A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9808633" y="897467"/>
+          <a:ext cx="7640108" cy="3911600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -14041,21 +16194,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5A768D-7306-FC4F-B383-045B55256D16}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="A1:H14"/>
+      <selection activeCell="C15" sqref="C15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="6" style="3" customWidth="1"/>
     <col min="12" max="12" width="6" style="4" customWidth="1"/>
-    <col min="13" max="13" width="6" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="6" style="4" customWidth="1"/>
     <col min="15" max="15" width="6" style="3" customWidth="1"/>
     <col min="16" max="16" width="6" style="4" customWidth="1"/>
@@ -14069,38 +16222,37 @@
     <col min="24" max="24" width="6" style="4" customWidth="1"/>
     <col min="25" max="25" width="6" style="3" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -14153,7 +16305,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="8">
@@ -14177,10 +16329,10 @@
       <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" s="3">
@@ -14191,7 +16343,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="8">
@@ -14215,10 +16367,10 @@
       <c r="H3" s="8">
         <v>0.25</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3">
         <v>60</v>
       </c>
       <c r="K3" s="3">
@@ -14230,7 +16382,7 @@
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="8">
@@ -14254,10 +16406,10 @@
       <c r="H4" s="8">
         <v>0.95</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4">
         <v>15</v>
       </c>
       <c r="K4" s="3">
@@ -14275,7 +16427,7 @@
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="8">
@@ -14299,10 +16451,10 @@
       <c r="H5" s="8">
         <v>0.3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5">
         <v>15</v>
       </c>
       <c r="K5" s="3">
@@ -14314,7 +16466,7 @@
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="8">
@@ -14338,10 +16490,10 @@
       <c r="H6" s="8">
         <v>0.2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6">
         <v>30</v>
       </c>
       <c r="K6" s="3">
@@ -14353,7 +16505,7 @@
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="8">
@@ -14377,10 +16529,10 @@
       <c r="H7" s="8">
         <v>0.95</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7">
         <v>10</v>
       </c>
       <c r="K7" s="3">
@@ -14398,7 +16550,7 @@
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="8">
@@ -14422,10 +16574,10 @@
       <c r="H8" s="8">
         <v>0.95</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8">
         <v>10</v>
       </c>
       <c r="K8" s="3">
@@ -14460,7 +16612,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="8">
@@ -14484,10 +16636,10 @@
       <c r="H9" s="8">
         <v>0.7</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9">
         <v>10</v>
       </c>
       <c r="K9" s="3">
@@ -14504,7 +16656,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="8">
@@ -14528,10 +16680,10 @@
       <c r="H10" s="8">
         <v>0.7</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10">
         <v>10</v>
       </c>
       <c r="K10" s="3">
@@ -14542,7 +16694,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8">
@@ -14566,10 +16718,10 @@
       <c r="H11" s="8">
         <v>0.8</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11">
         <v>15</v>
       </c>
       <c r="K11" s="3">
@@ -14622,7 +16774,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="8">
@@ -14646,10 +16798,10 @@
       <c r="H12" s="8">
         <v>0.1</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12">
         <v>15</v>
       </c>
       <c r="K12" s="3">
@@ -14702,7 +16854,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="8">
@@ -14726,10 +16878,10 @@
       <c r="H13" s="8">
         <v>1</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13">
         <v>15</v>
       </c>
       <c r="K13" s="3">
@@ -14740,11 +16892,11 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C14" s="8">
         <v>0.25</v>
@@ -14764,10 +16916,10 @@
       <c r="H14" s="8">
         <v>0.15</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14">
         <v>30</v>
       </c>
       <c r="K14" s="3">
@@ -14777,8 +16929,84 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" s="3">
+        <v>19</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H14">
+  <conditionalFormatting sqref="A2:H14 A15:A16">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -14805,7 +17033,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A2:H14</xm:sqref>
+          <xm:sqref>A2:H14 A15:A16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15109,7 +17337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDFC23-E89A-9F4B-A7AA-E0A7A407027A}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -16524,11 +18752,631 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55D3236-9365-4041-9580-E5D04C27FDB5}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.5</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{D879483C-C3D3-2D4B-9E5C-9F2A687F0A6C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92495E1E-9F76-0A4A-919D-C31D7277E00E}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4500</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{18554936-5ABB-E34F-8EAB-9A2FE612C6C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CDEE96-0433-3E48-91CF-9A77F207017B}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -17016,7 +19864,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17026,8 +19874,11 @@
       <c r="C17">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17038,7 +19889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17049,7 +19900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17060,7 +19911,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17071,7 +19922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17082,7 +19933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17093,7 +19944,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17104,7 +19955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17115,7 +19966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17126,7 +19977,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17137,7 +19988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17148,17 +19999,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
